--- a/Simulation/simulation results(W).xlsx
+++ b/Simulation/simulation results(W).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#YZ\Dartmouth\Courses\ENGS 103 Operations Research\Project\ENGS103\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2DA23B-287B-4073-A351-5CC4854BC0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F216BD-124F-4278-AD5D-EAEECB48BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P=0.5" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,22 +649,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>249.40891027153501</v>
+        <v>248.29861875316601</v>
       </c>
       <c r="D3" s="1">
-        <v>207.28471592819699</v>
+        <v>205.10962759101</v>
       </c>
       <c r="E3" s="1">
-        <v>206.58973726938001</v>
+        <v>205.09777355388701</v>
       </c>
       <c r="F3" s="1">
-        <v>205.87089253914999</v>
+        <v>206.41489076013801</v>
       </c>
       <c r="G3" s="1">
-        <v>206.205141369362</v>
+        <v>204.10837129763399</v>
       </c>
       <c r="H3" s="1">
-        <v>206.50029765480201</v>
+        <v>205.47958795834401</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -673,22 +673,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>213.16450962087799</v>
+        <v>214.372570371086</v>
       </c>
       <c r="D4" s="1">
-        <v>85.106606032778899</v>
+        <v>85.028212691320306</v>
       </c>
       <c r="E4" s="1">
-        <v>68.498065607117496</v>
+        <v>68.764782288014004</v>
       </c>
       <c r="F4" s="1">
-        <v>66.898714345921704</v>
+        <v>66.9225468471287</v>
       </c>
       <c r="G4" s="1">
-        <v>66.828842869427405</v>
+        <v>66.896381862153007</v>
       </c>
       <c r="H4" s="1">
-        <v>66.609684553089096</v>
+        <v>67.097465814550205</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -697,22 +697,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>211.118305590175</v>
+        <v>212.18725222070501</v>
       </c>
       <c r="D5" s="1">
-        <v>69.205795818426395</v>
+        <v>69.428143805104199</v>
       </c>
       <c r="E5" s="1">
-        <v>35.6964225992932</v>
+        <v>35.3689645157095</v>
       </c>
       <c r="F5" s="1">
-        <v>31.160046739117899</v>
+        <v>31.226620409405601</v>
       </c>
       <c r="G5" s="1">
-        <v>30.5856700745544</v>
+        <v>30.522649849282601</v>
       </c>
       <c r="H5" s="1">
-        <v>30.435698269978602</v>
+        <v>30.198050687319601</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>211.451572079822</v>
+        <v>211.23479379672199</v>
       </c>
       <c r="D6" s="1">
-        <v>68.757592298561605</v>
+        <v>68.1871421511336</v>
       </c>
       <c r="E6" s="1">
-        <v>29.773441815616501</v>
+        <v>29.832437131892799</v>
       </c>
       <c r="F6" s="1">
-        <v>26.189964122033899</v>
+        <v>26.147793729714799</v>
       </c>
       <c r="G6" s="1">
-        <v>25.670969254529599</v>
+        <v>25.6699421303835</v>
       </c>
       <c r="H6" s="1">
-        <v>25.521751124893701</v>
+        <v>25.527283821022301</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -745,22 +745,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>210.11755702913899</v>
+        <v>212.38466020366101</v>
       </c>
       <c r="D7" s="1">
-        <v>67.862286701548896</v>
+        <v>68.302470345075804</v>
       </c>
       <c r="E7" s="1">
-        <v>28.999240907418301</v>
+        <v>29.3258756377762</v>
       </c>
       <c r="F7" s="1">
-        <v>25.428613358206199</v>
+        <v>25.392012532511799</v>
       </c>
       <c r="G7" s="1">
-        <v>24.9596513313112</v>
+        <v>24.956641123058699</v>
       </c>
       <c r="H7" s="1">
-        <v>24.842020264824299</v>
+        <v>24.867892357779098</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -769,22 +769,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>209.27782328422001</v>
+        <v>211.63645605351499</v>
       </c>
       <c r="D8" s="1">
-        <v>67.522063508225898</v>
+        <v>67.947481405540898</v>
       </c>
       <c r="E8" s="1">
-        <v>28.691753690505799</v>
+        <v>28.568740200981399</v>
       </c>
       <c r="F8" s="1">
-        <v>25.178878509294499</v>
+        <v>25.190427802702398</v>
       </c>
       <c r="G8" s="1">
-        <v>24.794191773171299</v>
+        <v>24.805067420786099</v>
       </c>
       <c r="H8" s="1">
-        <v>24.713227242009701</v>
+        <v>24.6974347584989</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1008,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE6213B-8EAA-44A3-A598-87ABEFA1B098}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H8"/>
     </sheetView>
   </sheetViews>

--- a/Simulation/simulation results(W).xlsx
+++ b/Simulation/simulation results(W).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#YZ\Dartmouth\Courses\ENGS 103 Operations Research\Project\ENGS103\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F216BD-124F-4278-AD5D-EAEECB48BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E02469-A723-4F00-9141-9364AD8F928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P=0.5" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -114,6 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,16 +507,16 @@
       <c r="D5" s="1">
         <v>35.098322584225997</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>26.642695831651899</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>26.063067994180599</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>25.890470421656801</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <v>25.865694188475501</v>
       </c>
     </row>
@@ -523,16 +531,16 @@
       <c r="D6" s="1">
         <v>34.200511536781498</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>25.645189052803701</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>24.996422593867202</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>24.873057785709999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>24.857636268287202</v>
       </c>
     </row>
@@ -547,16 +555,16 @@
       <c r="D7" s="1">
         <v>34.243000683024597</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>25.3904486552604</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>24.833614740028999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>24.698131967261201</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>24.654463062654202</v>
       </c>
     </row>
@@ -571,16 +579,16 @@
       <c r="D8" s="1">
         <v>34.044693871866201</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>25.351928457839101</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>24.7822130649086</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>24.672694161317601</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>24.633154201109502</v>
       </c>
     </row>
@@ -595,6 +603,7 @@
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -603,7 +612,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E6" sqref="E6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,16 +735,16 @@
       <c r="D6" s="1">
         <v>68.1871421511336</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>29.832437131892799</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>26.147793729714799</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>25.6699421303835</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>25.527283821022301</v>
       </c>
     </row>
@@ -750,16 +759,16 @@
       <c r="D7" s="1">
         <v>68.302470345075804</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>29.3258756377762</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>25.392012532511799</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>24.956641123058699</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>24.867892357779098</v>
       </c>
     </row>
@@ -774,16 +783,16 @@
       <c r="D8" s="1">
         <v>67.947481405540898</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>28.568740200981399</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>25.190427802702398</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>24.805067420786099</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>24.6974347584989</v>
       </c>
     </row>
@@ -805,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D7B1B9-2E5C-4BC0-BF1D-050A6A910373}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -935,10 +944,10 @@
       <c r="F6" s="1">
         <v>31.102552751453501</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>28.493822127719699</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>28.1104608328381</v>
       </c>
     </row>
@@ -956,13 +965,13 @@
       <c r="E7" s="1">
         <v>47.996935486391102</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>27.717827034273299</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>25.759220567842501</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>25.3871636273837</v>
       </c>
     </row>
@@ -980,13 +989,13 @@
       <c r="E8" s="1">
         <v>47.570651600302199</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>26.966594301012002</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>25.221458998966298</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>24.939894757998001</v>
       </c>
     </row>

--- a/Simulation/simulation results(W).xlsx
+++ b/Simulation/simulation results(W).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#YZ\Dartmouth\Courses\ENGS 103 Operations Research\Project\ENGS103\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E02469-A723-4F00-9141-9364AD8F928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC18889-F393-439F-952F-F2E436C15FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P=0.5" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,19 @@
     <sheet name="P=0.9" sheetId="3" r:id="rId3"/>
     <sheet name="P=1(for reference)" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +63,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,16 +127,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -413,19 +429,19 @@
     <col min="1" max="1" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
@@ -448,8 +464,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -471,9 +487,13 @@
       <c r="H3" s="1">
         <v>126.980777962142</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="J3">
+        <f>H3-H4</f>
+        <v>91.000660270019097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -495,9 +515,13 @@
       <c r="H4" s="1">
         <v>35.980117692122903</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4">
+        <f t="shared" ref="J4:J7" si="0">H4-H5</f>
+        <v>10.114423503647402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -507,21 +531,25 @@
       <c r="D5" s="1">
         <v>35.098322584225997</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>26.642695831651899</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>26.063067994180599</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>25.890470421656801</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>25.865694188475501</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.0080579201882998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -531,21 +559,25 @@
       <c r="D6" s="1">
         <v>34.200511536781498</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>25.645189052803701</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>24.996422593867202</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>24.873057785709999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>24.857636268287202</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.20317320563300001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -555,21 +587,25 @@
       <c r="D7" s="1">
         <v>34.243000683024597</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>25.3904486552604</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>24.833614740028999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>24.698131967261201</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>24.654463062654202</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>2.1308861544699909E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -579,22 +615,44 @@
       <c r="D8" s="1">
         <v>34.044693871866201</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>25.351928457839101</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>24.7822130649086</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>24.672694161317601</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>24.633154201109502</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>C8-D8</f>
+        <v>95.618288675966795</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:H11" si="1">D8-E8</f>
+        <v>8.6927654140271002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.569715392930501</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.10951890359099892</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>3.9539960208099245E-2</v>
       </c>
     </row>
   </sheetData>
@@ -602,6 +660,16 @@
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="A2:A8"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:H8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -609,27 +677,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AEC034-FD6C-439B-8435-2C7307A9976B}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
@@ -652,8 +720,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -675,9 +743,13 @@
       <c r="H3" s="1">
         <v>205.47958795834401</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="J3">
+        <f>H3-H4</f>
+        <v>138.38212214379382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -699,9 +771,13 @@
       <c r="H4" s="1">
         <v>67.097465814550205</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4">
+        <f t="shared" ref="J4:J7" si="0">H4-H5</f>
+        <v>36.899415127230604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -723,9 +799,13 @@
       <c r="H5" s="1">
         <v>30.198050687319601</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>4.6707668662972992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -735,21 +815,25 @@
       <c r="D6" s="1">
         <v>68.1871421511336</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>29.832437131892799</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>26.147793729714799</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>25.6699421303835</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>25.527283821022301</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.65939146324320319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -759,21 +843,25 @@
       <c r="D7" s="1">
         <v>68.302470345075804</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>29.3258756377762</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>25.392012532511799</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>24.956641123058699</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>24.867892357779098</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.17045759928019777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -783,22 +871,44 @@
       <c r="D8" s="1">
         <v>67.947481405540898</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>28.568740200981399</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>25.190427802702398</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>24.805067420786099</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>24.6974347584989</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>C8-D8</f>
+        <v>143.68897464797408</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:G11" si="1">D8-E8</f>
+        <v>39.378741204559503</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.3783123982790002</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.38536038191629984</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.10763266228719814</v>
       </c>
     </row>
   </sheetData>
@@ -806,33 +916,44 @@
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="A2:A8"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:H8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D7B1B9-2E5C-4BC0-BF1D-050A6A910373}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C11" sqref="C11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
@@ -855,8 +976,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -878,9 +999,13 @@
       <c r="H3" s="1">
         <v>284.45293885586398</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="J3">
+        <f>H3-H4</f>
+        <v>178.88706619658996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -902,9 +1027,13 @@
       <c r="H4" s="1">
         <v>105.56587265927401</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="0">H4-H5</f>
+        <v>58.341151351567405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -917,18 +1046,22 @@
       <c r="E5" s="1">
         <v>60.489121061180299</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>49.600216316948099</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>47.297299035901801</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>47.224721307706602</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>19.114260474868502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -941,18 +1074,22 @@
       <c r="E6" s="1">
         <v>49.453678391864102</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>31.102552751453501</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>28.493822127719699</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>28.1104608328381</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2.7232972054544007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -965,18 +1102,22 @@
       <c r="E7" s="1">
         <v>47.996935486391102</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>27.717827034273299</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>25.759220567842501</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>25.3871636273837</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.44726886938569876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -989,19 +1130,41 @@
       <c r="E8" s="1">
         <v>47.570651600302199</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>26.966594301012002</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>25.221458998966298</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>24.939894757998001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>C8-D8</f>
+        <v>184.51060508714801</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:H11" si="1">D8-E8</f>
+        <v>60.381219578860808</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>20.604057299290197</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.7451353020457034</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.28156424096829724</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1172,18 @@
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:H8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1024,18 +1198,18 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
@@ -1059,7 +1233,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1083,7 +1257,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1107,7 +1281,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1131,7 +1305,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1155,7 +1329,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1179,7 +1353,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
